--- a/Ejemplo_Importacion_Casos.xlsx
+++ b/Ejemplo_Importacion_Casos.xlsx
@@ -1,41 +1,314 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\Sistemafuncional\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3D3BB5-5B00-4B2A-AFE3-6C9C8E181A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+  <si>
+    <t>Siniestro</t>
+  </si>
+  <si>
+    <t>Compania</t>
+  </si>
+  <si>
+    <t>Asegurado</t>
+  </si>
+  <si>
+    <t>Fecha Asignacion</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Poliza</t>
+  </si>
+  <si>
+    <t>Ramo</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t>Causa</t>
+  </si>
+  <si>
+    <t>Tramitador</t>
+  </si>
+  <si>
+    <t>Fecha Siniestro</t>
+  </si>
+  <si>
+    <t>Fecha Denuncia</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>Nro</t>
+  </si>
+  <si>
+    <t>Localidad</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Calle Riesgo</t>
+  </si>
+  <si>
+    <t>Localidad Riesgo</t>
+  </si>
+  <si>
+    <t>CABA</t>
+  </si>
+  <si>
+    <t>LIFE SEGUROS</t>
+  </si>
+  <si>
+    <t>TOUMAS ROSANA NOEMI</t>
+  </si>
+  <si>
+    <t>CORIA MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MODERNEL DULIO SANTIAGO</t>
+  </si>
+  <si>
+    <t>PERRINI LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>BENITEZ FLAVIA AYELEN</t>
+  </si>
+  <si>
+    <t>JUSTINIANO LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>HIRSCH ALINA</t>
+  </si>
+  <si>
+    <t>KLEIN GUSTAVO JAVIER</t>
+  </si>
+  <si>
+    <t>QUISPE IRMA ISABEL</t>
+  </si>
+  <si>
+    <t>KAPKO DIEGO JUAN</t>
+  </si>
+  <si>
+    <t>TECNOLOGIA PORTATIL</t>
+  </si>
+  <si>
+    <t>COMBINADO FAMILIAR</t>
+  </si>
+  <si>
+    <t>ronigua2000@gmail.com</t>
+  </si>
+  <si>
+    <t>mmdecoria@gmail.com</t>
+  </si>
+  <si>
+    <t>santiago.modernel.1987@gmail.com</t>
+  </si>
+  <si>
+    <t>perriniluis@gmail.com</t>
+  </si>
+  <si>
+    <t>flavia2392@hotmail.com</t>
+  </si>
+  <si>
+    <t>alberto_jla@hotmail.com</t>
+  </si>
+  <si>
+    <t>alinahirsch@gmail.com</t>
+  </si>
+  <si>
+    <t>losklein@hotmail.com</t>
+  </si>
+  <si>
+    <t>irminquispe1974@gmail.com</t>
+  </si>
+  <si>
+    <t>dkapko9@gmail.com</t>
+  </si>
+  <si>
+    <t>KRASSER</t>
+  </si>
+  <si>
+    <t>DAÑO TECNOLOGIA PROTEGIDA</t>
+  </si>
+  <si>
+    <t>ROBO</t>
+  </si>
+  <si>
+    <t>RAYO</t>
+  </si>
+  <si>
+    <t>FALLA DE TENSION</t>
+  </si>
+  <si>
+    <t>ROBO EN VIA PUBLICA</t>
+  </si>
+  <si>
+    <t>DAÑO ELECTRODOMESTICOS</t>
+  </si>
+  <si>
+    <t>DAÑO ACCIDENTAL</t>
+  </si>
+  <si>
+    <t>DIAZ CAROLINA</t>
+  </si>
+  <si>
+    <t>GRETEL BUSTOS</t>
+  </si>
+  <si>
+    <t>FRANCO RAFAEL</t>
+  </si>
+  <si>
+    <t>BOTTINELLI ROMINA</t>
+  </si>
+  <si>
+    <t>MELO FLORENCIA</t>
+  </si>
+  <si>
+    <t>MALISANI PAULA</t>
+  </si>
+  <si>
+    <t>BAIGORRIA PATRICIO</t>
+  </si>
+  <si>
+    <t>cross sin riesgo, único stro, cliente icbc, fi 19/07/2025, sa$ 1.260.488, prima facturada, reclama daño accidental celular iPhone 13 mini, adjunta fotos de la caja y ppto "isale" por reparación $1.210.000 derivo para descartar fraude, solicitar doc completa, fotos del bien, capturas, veracidad de informe</t>
+  </si>
+  <si>
+    <t>ULTIMAS 3 CUOTAS PENDIENTES----VERIFICAR MEDIDAS DE SEGURIDAD Y DAÑOS---INDAGAR CUANTOS DIAS ESTUVO DESHABITADA LA CASA----SOLICITAR PREEXISTENCIAS----REPORTE COMERCIALY FENIX -----NO CUENTA CON ADIC DE NOTEBOOK- ---3ER STRO 26/10/25 ( HECHA 6/12/25 ) ROBO HOGAR: NOTEBOOK LENOVO 15/512 + NOTEBOOK EPSON MODELO 19 + JOYAS Y DINERO----BAHIA BLANCA ---ENVIA DEN POLICIAL----------RENOVACION 16/4/19-----1ER STRO 2/2/25 GRANIZO BAHIA BLANCA, PENDIENTE-------2DO STRO 7/3/25 INUNDACION, BAHIA BLANCA, DERIVADO A MANFREDI, PAGO-</t>
+  </si>
+  <si>
+    <t>RENOVACION, 4TO STRO, DENUNCIA DAÑOS IRREPARABLES POR RAYO A UN AIRE ACOND, PREVIOS SIN RELACION, POR FAVOR VERIFICAR ESTADO DEL BIEN Y CONSTATAR CAUSA DEL DAÑO, AUDITAR INFORME TECNICO, SERVICE Y SU CONTENIDO, DESCARTAR FRAUDE, DESGASTE Y/O VICIO, ANALISIS INICIAL CIA OK</t>
+  </si>
+  <si>
+    <t>4TO EVENTO 3ER EN AÑO PLZ CUENTA CON ANTECEDENTE DE DESISTE // ANTC 3) LAVARROPAS DREAN EXCELLENT BLUE 6.06 - Nº de Serie: 142570110 01160003870 desistido 2) daño ventilador pago ) HELADERA (VICIO PROPIO) Y UN MICROONDAS // Actual reclama daño en heladera y freezer 2/12/25 no aporta documentación ni indica causa del daño // primas ur ok viene de renovaciones // Favor indagar en la veracidad de los hechos, solicitar informe técnico, factura de compra de los bienes , realizar reporte comercial y fénix</t>
+  </si>
+  <si>
+    <t>1ER EVENTO, ASEG RECLAMA ROBO DE CELULAR SAMSUNG A53 5 F , EQUIPO GAMA MEDIA COSTO ALTO.- IMEI 352589405795523 ACTIVO. ENVIA DP LUEGO DE DOS DIAS DEL HECHO. POR FAVOR DESCARTAR FRAUDE, SOLICITAR FACTURA DE COMPRA, CAPTURAS DE GOOGLE Y BAJA DE IMEI</t>
+  </si>
+  <si>
+    <t>1er evento , aseg reclama robo de celular samsung s20fe, verificar si fue HURTO o robo con violencia "en dcia informa que le cortaron la mochila" verificar. Solicitar DENUNCIA POLICIAL completa, firmada y sellada- capturas de google, baja deimei, factura de compra. Descartar fraude</t>
+  </si>
+  <si>
+    <t>POLIZA NUEVA, IP 04/12/25, SINIESTRALIDAD TEMPRANA, POR FAVOR VERIFICAR ESTADO DE LA HELADERA, AUDITAR SERVICE QUE EMITE PRESUPUESTO Y CONSULTAR CAUSA DE LOS DAÑOS ASI COMO LA FECHA EN QUE REVISO EL BIEN, DESCARTAR DESGASTE Y/O VICIO, DESCARTAR QUE EL DAÑO HAYA SIDO ANTERIOR AL INICIO DE LA VIGENCIA DE LA POLIZA, ANALISIS INICIAL CIA OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derivo 2do siniestro de cliente. Reclama daño de 2 AA por rayo. Validar existencia de los mismos y daño con taller. En caso de corresponder, consultar valor de reparación, o cotizar / ANT 01/05/2023 Daño caldera Pago </t>
+  </si>
+  <si>
+    <t>1ER STRO 14/5/21 DAÑO CELU - 2DO STRO 15/12/21 MICROONDAS - 3ER STRO 22/3/22 ROBO DE CELU DE 3RO, RECH - 4TO STRO DAÑO ACCIDENTAL (C/RELATO SIMILAR AL ACTUAL) TV  LG 32LK615B SERIE 6968 (S/REPARACION) - 4TO STRO 8/6/23 ROBO CELU - ACTUAL: PZA MACRO RENOVADA - CORROBROAR UR - RECLAMA DAÑO ACC DE TV 65" LG, VERIFICAR - FAVOR DE ADJUNTAR FENIX Y REPORTE COMERCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e evento daño popr fall aa ocurrencia en mes inicial primas sin debitar ur ok presenta it con monto de revisión pero no confirma si es reparable o no // por tiempo en póliza se deriva // Favor indagar en la veracidad de los hechos, solicitar preexistencias inspección del bien y fact de compra , confirmar la confección del it , realizar reporte comercial y fénix </t>
+  </si>
+  <si>
+    <t>BERNABE FERREYRA</t>
+  </si>
+  <si>
+    <t>SAN SALVADOR</t>
+  </si>
+  <si>
+    <t>B MONSEHOR D CARLO ECHEVRRIA</t>
+  </si>
+  <si>
+    <t>MARRASPIN</t>
+  </si>
+  <si>
+    <t>F VARELA</t>
+  </si>
+  <si>
+    <t>B DEMOCRACIA MZA 3</t>
+  </si>
+  <si>
+    <t>PEDRO CONDE</t>
+  </si>
+  <si>
+    <t>PRIMEROS COLONIZADORES</t>
+  </si>
+  <si>
+    <t>B VA JUANITA</t>
+  </si>
+  <si>
+    <t>MZ 1 L 7</t>
+  </si>
+  <si>
+    <t>AV LOPEZ TORRES</t>
+  </si>
+  <si>
+    <t>UNION FERROVIARIA</t>
+  </si>
+  <si>
+    <t>BUENOS AIRES</t>
+  </si>
+  <si>
+    <t>BAHIA BLANCA</t>
+  </si>
+  <si>
+    <t>RESISTENCIA</t>
+  </si>
+  <si>
+    <t>CHACO</t>
+  </si>
+  <si>
+    <t>GERLI</t>
+  </si>
+  <si>
+    <t>PUERTO IGUAZU</t>
+  </si>
+  <si>
+    <t>MISIONES</t>
+  </si>
+  <si>
+    <t>SALTA</t>
+  </si>
+  <si>
+    <t>SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSADAS </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,14 +337,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,204 +706,675 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.4140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Siniestro</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Compania</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Asegurado</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Fecha Asignacion</v>
-      </c>
-      <c r="E1" t="str">
-        <v>DNI</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Poliza</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Patente</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Ramo</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Telefono</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Mail</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Analista</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Causa</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Tramitador</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Fecha Siniestro</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Fecha Denuncia</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Observaciones</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Calle</v>
-      </c>
-      <c r="R1" t="str">
-        <v>Nro</v>
-      </c>
-      <c r="S1" t="str">
-        <v>Localidad</v>
-      </c>
-      <c r="T1" t="str">
-        <v>Provincia</v>
-      </c>
-      <c r="U1" t="str">
-        <v>Calle Riesgo</v>
-      </c>
-      <c r="V1" t="str">
-        <v>Localidad Riesgo</v>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>12345/2024</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Rivadavia</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Juan Pérez</v>
-      </c>
-      <c r="D2" t="str">
-        <v>08/01/2026</v>
-      </c>
-      <c r="E2" t="str">
-        <v>20334455</v>
-      </c>
-      <c r="F2" t="str">
-        <v>998877</v>
-      </c>
-      <c r="G2" t="str">
-        <v>AB123CD</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Automotores</v>
-      </c>
-      <c r="I2" t="str">
-        <v>1122334455</v>
-      </c>
-      <c r="J2" t="str">
-        <v>juan@mail.com</v>
-      </c>
-      <c r="K2" t="str">
-        <v>HM</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Choque en cadena</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Gomez</v>
-      </c>
-      <c r="N2" t="str">
-        <v>01/01/2026</v>
-      </c>
-      <c r="O2" t="str">
-        <v>02/01/2026</v>
-      </c>
-      <c r="P2" t="str">
-        <v>Derivado por urgencia</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>Av. Rivadavia 100</v>
-      </c>
-      <c r="R2" t="str">
-        <v>100</v>
-      </c>
-      <c r="S2" t="str">
-        <v>CABA</v>
-      </c>
-      <c r="T2" t="str">
-        <v>Buenos Aires</v>
-      </c>
-      <c r="U2" t="str">
-        <v>Av. Corrientes 500</v>
-      </c>
-      <c r="V2" t="str">
-        <v>CABA</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>29397</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46003</v>
+      </c>
+      <c r="E2">
+        <v>18487615</v>
+      </c>
+      <c r="F2">
+        <v>547963</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>1156974101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45993</v>
+      </c>
+      <c r="N2" s="1">
+        <v>46000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>67890/2024</v>
-      </c>
-      <c r="B3" t="str">
-        <v>San Cristobal</v>
-      </c>
-      <c r="C3" t="str">
-        <v>María Garcia</v>
-      </c>
-      <c r="D3" t="str">
-        <v>07/01/2026</v>
-      </c>
-      <c r="E3" t="str">
-        <v>25888999</v>
-      </c>
-      <c r="F3" t="str">
-        <v>554433</v>
-      </c>
-      <c r="G3" t="str">
-        <v>AF444GG</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Hogar</v>
-      </c>
-      <c r="I3" t="str">
-        <v>1166778899</v>
-      </c>
-      <c r="J3" t="str">
-        <v>maria@mail.com</v>
-      </c>
-      <c r="K3" t="str">
-        <v>GIBERT</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Incendio parcial</v>
-      </c>
-      <c r="M3" t="str">
-        <v>Lopez</v>
-      </c>
-      <c r="N3" t="str">
-        <v>05/01/2026</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>Calle Falsa 123</v>
-      </c>
-      <c r="S3" t="str">
-        <v>Lanus</v>
-      </c>
-      <c r="T3" t="str">
-        <v>Buenos Aires</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>93493</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>46006</v>
+      </c>
+      <c r="E3">
+        <v>4935605</v>
+      </c>
+      <c r="F3">
+        <v>70045</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>2914229015</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="1">
+        <v>45956</v>
+      </c>
+      <c r="N3" s="1">
+        <v>46002</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3">
+        <v>272</v>
+      </c>
+      <c r="R3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>93536</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>46008</v>
+      </c>
+      <c r="E4">
+        <v>32854947</v>
+      </c>
+      <c r="F4">
+        <v>243745</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>3624774324</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="1">
+        <v>45999</v>
+      </c>
+      <c r="N4" s="1">
+        <v>46002</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4">
+        <v>998</v>
+      </c>
+      <c r="R4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>93479</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1">
+        <v>46008</v>
+      </c>
+      <c r="E5">
+        <v>30921976</v>
+      </c>
+      <c r="F5">
+        <v>102167</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>1131575965</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="1">
+        <v>45993</v>
+      </c>
+      <c r="N5" s="1">
+        <v>46001</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5">
+        <v>4175</v>
+      </c>
+      <c r="R5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>29494</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>46013</v>
+      </c>
+      <c r="E6">
+        <v>37046541</v>
+      </c>
+      <c r="F6">
+        <v>577865</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>3757530477</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="1">
+        <v>46005</v>
+      </c>
+      <c r="N6" s="1">
+        <v>46007</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6">
+        <v>294</v>
+      </c>
+      <c r="R6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>29495</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>46013</v>
+      </c>
+      <c r="E7">
+        <v>33539975</v>
+      </c>
+      <c r="F7">
+        <v>484926</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>3875541671</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="1">
+        <v>45992</v>
+      </c>
+      <c r="N7" s="1">
+        <v>46007</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>93668</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1">
+        <v>46013</v>
+      </c>
+      <c r="E8">
+        <v>21002545</v>
+      </c>
+      <c r="F8">
+        <v>93668</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>1132776649</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="1">
+        <v>46006</v>
+      </c>
+      <c r="N8" s="1">
+        <v>46006</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8">
+        <v>4465</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>93797</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>46013</v>
+      </c>
+      <c r="E9">
+        <v>20188464</v>
+      </c>
+      <c r="F9">
+        <v>30950</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>3564577195</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="1">
+        <v>45996</v>
+      </c>
+      <c r="N9" s="1">
+        <v>46008</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9">
+        <v>3690</v>
+      </c>
+      <c r="R9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>93764</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>46013</v>
+      </c>
+      <c r="E10">
+        <v>24062462</v>
+      </c>
+      <c r="F10">
+        <v>121838</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>3875209253</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="1">
+        <v>46005</v>
+      </c>
+      <c r="N10" s="1">
+        <v>46008</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>93693</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1">
+        <v>46013</v>
+      </c>
+      <c r="E11">
+        <v>39228165</v>
+      </c>
+      <c r="F11">
+        <v>310923</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>3764704800</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="1">
+        <v>46006</v>
+      </c>
+      <c r="N11" s="1">
+        <v>46007</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11">
+        <v>5875</v>
+      </c>
+      <c r="R11" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V3"/>
+    <ignoredError sqref="A1:F1 T3:U3 G1:U1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Ejemplo_Importacion_Casos.xlsx
+++ b/Ejemplo_Importacion_Casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\Sistemafuncional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3D3BB5-5B00-4B2A-AFE3-6C9C8E181A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE6180C-65B0-4B61-8075-8D1C43510EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,35 +344,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -710,12 +682,31 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="255.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
